--- a/Return Analysis.xlsx
+++ b/Return Analysis.xlsx
@@ -8,29 +8,307 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Code\Data Analysis on Nifty ETF SIP 2002-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB02112-E2E3-47AE-AD8A-18F3CA2AE9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F5ED4-75EB-4FE4-8B87-6D0789C97863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal SIP" sheetId="1" r:id="rId1"/>
+    <sheet name="Expiry SIP" sheetId="2" r:id="rId2"/>
+    <sheet name="Min SIP" sheetId="3" r:id="rId3"/>
+    <sheet name="Max SIP" sheetId="4" r:id="rId4"/>
+    <sheet name="Week SIP" sheetId="5" r:id="rId5"/>
+    <sheet name="Day SIP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="69">
+  <si>
+    <t>Normal SIP</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>3 Years</t>
+  </si>
+  <si>
+    <t>5 Years</t>
+  </si>
+  <si>
+    <t>7 Years</t>
+  </si>
+  <si>
+    <t>15 Years</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>XIRR</t>
+  </si>
+  <si>
+    <t>2002 - 2004</t>
+  </si>
+  <si>
+    <t>2002 - 2006</t>
+  </si>
+  <si>
+    <t>2002 - 2008</t>
+  </si>
+  <si>
+    <t>2002 - 2016</t>
+  </si>
+  <si>
+    <t>2003 - 2005</t>
+  </si>
+  <si>
+    <t>2003 - 2007</t>
+  </si>
+  <si>
+    <t>2003 - 2009</t>
+  </si>
+  <si>
+    <t>2003 - 2017</t>
+  </si>
+  <si>
+    <t>2004 - 2006</t>
+  </si>
+  <si>
+    <t>2004 - 2008</t>
+  </si>
+  <si>
+    <t>2004 - 2010</t>
+  </si>
+  <si>
+    <t>2004 - 2018</t>
+  </si>
+  <si>
+    <t>2005 - 2007</t>
+  </si>
+  <si>
+    <t>2005 - 2009</t>
+  </si>
+  <si>
+    <t>2005 - 2011</t>
+  </si>
+  <si>
+    <t>2005 - 2019</t>
+  </si>
+  <si>
+    <t>2006 - 2008</t>
+  </si>
+  <si>
+    <t>2006 - 2010</t>
+  </si>
+  <si>
+    <t>2006 - 2012</t>
+  </si>
+  <si>
+    <t>2006 - 2020</t>
+  </si>
+  <si>
+    <t>2007 - 2009</t>
+  </si>
+  <si>
+    <t>2007 - 2011</t>
+  </si>
+  <si>
+    <t>2007 - 2013</t>
+  </si>
+  <si>
+    <t>2007 - 2021</t>
+  </si>
+  <si>
+    <t>2008 - 2010</t>
+  </si>
+  <si>
+    <t>2008 - 2012</t>
+  </si>
+  <si>
+    <t>2008 - 2014</t>
+  </si>
+  <si>
+    <t>2009 - 2011</t>
+  </si>
+  <si>
+    <t>2009 - 2013</t>
+  </si>
+  <si>
+    <t>2009 - 2015</t>
+  </si>
+  <si>
+    <t>20 Years</t>
+  </si>
+  <si>
+    <t>2010 - 2012</t>
+  </si>
+  <si>
+    <t>2010 - 2014</t>
+  </si>
+  <si>
+    <t>2010 - 2016</t>
+  </si>
+  <si>
+    <t>2002 - 2021</t>
+  </si>
+  <si>
+    <t>2011 - 2013</t>
+  </si>
+  <si>
+    <t>2011 - 2015</t>
+  </si>
+  <si>
+    <t>2011 - 2017</t>
+  </si>
+  <si>
+    <t>2012 - 2014</t>
+  </si>
+  <si>
+    <t>2012 - 2016</t>
+  </si>
+  <si>
+    <t>2012 - 2018</t>
+  </si>
+  <si>
+    <t>2013 - 2015</t>
+  </si>
+  <si>
+    <t>2013 - 2017</t>
+  </si>
+  <si>
+    <t>2013 - 2019</t>
+  </si>
+  <si>
+    <t>2014 - 2016</t>
+  </si>
+  <si>
+    <t>2014 - 2018</t>
+  </si>
+  <si>
+    <t>2014 - 2020</t>
+  </si>
+  <si>
+    <t>2015 - 2017</t>
+  </si>
+  <si>
+    <t>2015 - 2019</t>
+  </si>
+  <si>
+    <t>2015 - 2021</t>
+  </si>
+  <si>
+    <t>2016 - 2018</t>
+  </si>
+  <si>
+    <t>2016 - 2020</t>
+  </si>
+  <si>
+    <t>2017 - 2019</t>
+  </si>
+  <si>
+    <t>2017 - 2021</t>
+  </si>
+  <si>
+    <t>2018 - 2020</t>
+  </si>
+  <si>
+    <t>2019 - 2021</t>
+  </si>
+  <si>
+    <t>Expiry SIP</t>
+  </si>
+  <si>
+    <t>Min SIP</t>
+  </si>
+  <si>
+    <t>Max SIP</t>
+  </si>
+  <si>
+    <t>Week SIP</t>
+  </si>
+  <si>
+    <t>Day SIP</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SF Pro Display"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="SF Pro Display"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="SF Pro Display"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,8 +331,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,14 +710,3726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5.53515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="N4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.4800000000000543E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.33369999999997962</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.39599999999997271</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.4200000000001671E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1257000000000025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0310999999999031</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.39809999999997248</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.4432999999999675</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.21499999999999261</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.130000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.31809999999998129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.44229999999996761</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1.439999999999997E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.18459999999999599</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1157000000000023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.51269999999995985</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.49489999999996181</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.16829999999999781</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7.8300000000001216E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.11040000000000209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.51529999999995957</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.2434999999999895</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.15099999999999969</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.1200000000001299E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.105200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.79689999999992855</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1479</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.5299999999999977E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.4500000000001107E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.12680000000000241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.66929999999994261</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.221099999999992</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.7700000000001485E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.14770000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.84079999999992372</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.3999999999999947E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.7300000000001474E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.1018000000000019</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.2441999999999894</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.03000000000007E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.16379999999999831</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.8400000000001219E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.18619999999999581</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.3700000000001371E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.10050000000000189</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.1207000000000024</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.14350000000000049</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.24339999999998951</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.25689999999998803</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8.3700000000001371E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.1175000000000023</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1316000000000018</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.17000000000016E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.12630000000000241</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1163000000000023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.44949999999996681</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.107200000000002</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.11240000000000221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-9.3500000000001651E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.12740000000000229</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.1132000000000022</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.16159999999999849</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.0199999999999869E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1227000000000025</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.12430000000000251</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.1765999999999969</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.11240000000000221</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.18599999999999581</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.7800000000000063E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.1346000000000015</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.1403000000000009</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.25589999999998808</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.50669999999996052</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.23319999999999061</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.61328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="N4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1241000000000025</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.37229999999997532</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.39189999999997321</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.12990000000000201</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1236000000000025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2269999999998811</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.41929999999997009</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.45569999999996608</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.2159999999999925</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.13290000000000171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.46809999999996482</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.4341999999999685</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.6800000000000027E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.18769999999999559</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.11440000000000219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60299999999994991</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.51459999999995965</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.1701999999999976</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6.0500000000000713E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.11090000000000209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.43579999999996832</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.16859999999999781</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.1544999999999993</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.0600000000001282E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1120000000000022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.82039999999992597</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1538999999999994</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.239999999999998E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.7200000000001184E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.12660000000000241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.48429999999996298</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2377999999999901</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.1600000000001597E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.13620000000000129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.73799999999993504</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.029999999999999E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.8700000000001514E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.9100000000001812E-2</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.28109999999998542</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.6200000000000869E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1461000000000002</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.5500000000001136E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.22969999999999099</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.5500000000001709E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.10050000000000189</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.12990000000000201</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.1407000000000008</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.2228999999999918</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.21779999999999231</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.7100000000001181E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.1142000000000022</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.15459999999999929</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.7400000000001477E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.13780000000000109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1176000000000023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.28489999999998489</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.6899999999999889E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1030000000000019</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.12870000000000209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-7.5400000000001133E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.15109999999999971</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.11640000000000229</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.16069999999999859</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.959999999999994E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1165000000000023</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.21659999999999249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.11240000000000221</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.18159999999999629</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.5399999999999898E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.17419999999999711</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.13310000000000169</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.24519999999998929</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.64339999999994546</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.19819999999999449</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5.84375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="N4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.2900000000001348E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3705999999999755</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.37899999999997458</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.10440000000000201</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.12590000000000251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1809999999998859</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.41799999999997028</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.45089999999996672</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.21769999999999229</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.13400000000000159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.4786999999999636</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.41359999999997082</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.9999999999999992E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.1919999999999952</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1167000000000023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.59359999999995094</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.50889999999996027</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.17639999999999689</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7.0000000000000978E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.1138000000000022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.41569999999997048</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.211999999999993</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.16509999999999811</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.5000000000001694E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1107000000000021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.83419999999992445</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1738999999999972</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.729999999999989E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>8.5200000000001413E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.12780000000000219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.59239999999995108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.25849999999998791</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1105000000000021</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.14510000000000031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.84169999999992362</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.9000000000000017E-3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9.6500000000001737E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.9700000000001829E-2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.25969999999998772</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8.2400000000001333E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.15169999999999961</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.7100000000001181E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.22479999999999159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.9800000000001832E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.7000000000001751E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.12780000000000219</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0.14380000000000051</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.2870999999999847</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.22699999999999129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.9400000000001247E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.11490000000000231</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.17299999999999729</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.1500000000001308E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.13440000000000149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1197000000000024</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.30929999999998231</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.0499999999999871E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1031000000000019</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.1212000000000024</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-0.1027000000000019</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.14330000000000051</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.1187000000000024</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.1599999999999987</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.399999999999991E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.11540000000000231</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.13780000000000109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.1862999999999958</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1168000000000023</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.1817999999999963</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.2099999999999918E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.16309999999999841</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.1651999999999981</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.25229999999998848</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.72329999999993666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.18229999999999619</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5.4609375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="N4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.8600000000000079E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.34259999999997859</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.38199999999997419</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.1190000000000024</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.12130000000000241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.200299999999884</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.38819999999997362</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.43679999999996821</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.202399999999994</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.12790000000000221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.33239999999997971</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.4141999999999707</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.969999999999994E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.1769999999999968</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1107000000000021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.47799999999996368</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.484099999999963</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.15019999999999981</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7.1500000000001021E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.107300000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.42359999999996972</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.19129999999999531</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.14010000000000089</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7.2100000000001038E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.10690000000000199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.73499999999993537</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1132000000000022</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.5399999999999898E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6.8000000000000921E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.1237000000000025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.56299999999995431</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.19819999999999449</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.5200000000001127E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.13780000000000109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.59429999999995087</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.8399999999999941E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.9100000000001239E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.9800000000001545E-2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.22569999999999149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.9100000000000379E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1542999999999993</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6.8700000000000941E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.18829999999999561</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.7700000000001199E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8.5600000000001425E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.11740000000000229</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0.14280000000000059</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1919999999999952</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.23869999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.6300000000000872E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.106200000000002</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.11450000000000229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.0000000000000692E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1185000000000024</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1091000000000021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.3996999999999723</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-5.7000000000000019E-3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8.7900000000001491E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.1157000000000023</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-0.27129999999998639</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1022000000000019</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9.9700000000001829E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.15289999999999951</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-0.14240000000000061</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9.2500000000001623E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.13080000000000189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.19169999999999521</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.10940000000000211</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.18139999999999629</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.15319999999999939</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.130300000000002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.24319999999998951</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.49489999999996181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.19729999999999459</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="4.765625" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="N4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.8300000000001789E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.36749999999997579</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.38099999999997441</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.12680000000000241</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1211000000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2013999999998839</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.39719999999997258</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.44379999999996739</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.21589999999999249</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.13330000000000161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.4268999999999693</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.41279999999997091</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.3599999999999942E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.18649999999999581</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1132000000000022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.5104999999999601</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.49619999999996173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.1710999999999975</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6.8700000000000941E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.1122000000000022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4078999999999714</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.16529999999999809</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.15469999999999931</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7.9900000000001262E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1112000000000022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.77239999999993125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1551999999999992</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.339999999999991E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.7600000000001196E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.12540000000000251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.49569999999996173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.22849999999999121</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.7200000000001471E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.1403000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.7573999999999329</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.1799999999999981E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9.030000000000156E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.8600000000001797E-2</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.24429999999998939</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.8500000000000649E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.15219999999999961</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6.8200000000000927E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.19759999999999461</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.310000000000164E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.7700000000001772E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.12970000000000201</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0.1457000000000003</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.2110999999999931</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.23029999999999101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.8200000000000927E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.1113000000000022</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.14490000000000039</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.4100000000001382E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.13790000000000111</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1202000000000024</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.32989999999997999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.239999999999998E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9.87000000000018E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.1264000000000024</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-8.3200000000001356E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.15019999999999981</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.1200000000000024</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.1578999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-2.799999999999989E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1088000000000021</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.14460000000000039</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2271999999999913</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1216000000000025</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.17889999999999659</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.16939999999999769</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.17139999999999739</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.2400999999999899</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.59449999999995085</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.17639999999999689</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.15234375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="N4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.106500000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.36319999999997632</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.38539999999997387</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.1196000000000024</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.12580000000000249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3443999999998679</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.42169999999996988</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.45459999999996631</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.2164999999999925</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1339000000000016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.42339999999996969</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.42319999999996971</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.469999999999991E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.1910999999999953</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.11540000000000231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.6003999999999502</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.51659999999995942</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.1719999999999974</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6.0200000000000697E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.11140000000000221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.44229999999996761</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.1792999999999966</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.16039999999999871</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.2200000000001328E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.11190000000000221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.85089999999992261</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1556999999999992</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.8999999999999956E-3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.7700000000001199E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.12700000000000231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.50819999999996035</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.24109999999998979</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.100000000000158E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.13800000000000109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.74309999999993448</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.2099999999999981E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9.0000000000001551E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.9800000000001832E-2</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.28469999999998502</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.4000000000000806E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1484</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.8400000000001219E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.24789999999998899</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.2100000000001611E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.9700000000001829E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.12970000000000201</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0.14620000000000019</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.21779999999999231</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.220799999999992</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8.3100000000001353E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.1157000000000023</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.14630000000000021</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.0200000000001557E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.13900000000000101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1185000000000024</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.29279999999998407</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.7500000000000047E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.10490000000000201</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.12840000000000221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-7.0500000000000992E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.15469999999999931</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.11790000000000241</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.1624999999999984</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.0100000000000408E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.11800000000000239</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1466000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2241999999999916</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.11490000000000231</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.18229999999999619</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.16869999999999771</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.15679999999999911</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.24819999999998901</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.64169999999994565</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.19649999999999471</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Return Analysis.xlsx
+++ b/Return Analysis.xlsx
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="O6" s="1" t="n">
-        <v>0.1196000000000024</v>
+        <v>0.1199000000000024</v>
       </c>
     </row>
     <row r="7">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.1279000000000022</v>
+        <v>0.1284000000000022</v>
       </c>
     </row>
     <row r="8">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.1094000000000021</v>
+        <v>0.1099000000000021</v>
       </c>
     </row>
     <row r="9">
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.105800000000002</v>
+        <v>0.106500000000002</v>
       </c>
     </row>
     <row r="10">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.106700000000002</v>
+        <v>0.1075000000000021</v>
       </c>
     </row>
     <row r="11">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="O11" s="1" t="n">
-        <v>0.1221000000000025</v>
+        <v>0.1229000000000025</v>
       </c>
     </row>
     <row r="12">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="L13" s="1" t="n">
-        <v>0.08740000000000148</v>
+        <v>0.08920000000000153</v>
       </c>
       <c r="N13" s="21" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="L14" s="1" t="n">
-        <v>0.06520000000000084</v>
+        <v>0.06910000000000095</v>
       </c>
       <c r="N14" s="9" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.08240000000000133</v>
+        <v>0.08630000000000144</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="L15" s="1" t="n">
-        <v>0.1174000000000023</v>
+        <v>0.1216000000000025</v>
       </c>
       <c r="N15" s="22" t="n">
-        <v>0.1380000000000011</v>
+        <v>0.1382000000000011</v>
       </c>
     </row>
     <row r="16">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.06150000000000073</v>
+        <v>0.06990000000000098</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="L16" s="1" t="n">
-        <v>0.1031000000000019</v>
+        <v>0.1078000000000021</v>
       </c>
     </row>
     <row r="17">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.05590000000000057</v>
+        <v>0.06830000000000093</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.1185000000000024</v>
+        <v>0.1282000000000022</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="L17" s="1" t="n">
-        <v>0.105600000000002</v>
+        <v>0.1109000000000021</v>
       </c>
     </row>
     <row r="18">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>-0.01109999999999999</v>
+        <v>0.01659999999999996</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0.08370000000000137</v>
+        <v>0.09470000000000169</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0.1152000000000023</v>
+        <v>0.1211000000000024</v>
       </c>
     </row>
     <row r="19">
@@ -3320,7 +3320,7 @@
         <v>2015</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-0.2325999999999907</v>
+        <v>-0.1191000000000024</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.1022000000000019</v>
+        <v>0.1343000000000015</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.09480000000000169</v>
+        <v>0.107100000000002</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.1485</v>
+        <v>0.1549999999999992</v>
       </c>
     </row>
     <row r="20">
@@ -3352,7 +3352,7 @@
         <v>2016</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>-0.1415000000000007</v>
+        <v>-0.01869999999999994</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.08510000000000141</v>
+        <v>0.1024000000000019</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.130100000000002</v>
+        <v>0.1366000000000013</v>
       </c>
     </row>
     <row r="21">
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.1154000000000023</v>
+        <v>0.1153000000000023</v>
       </c>
     </row>
     <row r="9">
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.08310000000000135</v>
+        <v>0.08300000000000135</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="L16" s="1" t="n">
-        <v>0.1157000000000023</v>
+        <v>0.1156000000000023</v>
       </c>
     </row>
     <row r="17">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.09020000000000156</v>
+        <v>0.09010000000000155</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.139000000000001</v>
+        <v>0.138900000000001</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="L17" s="1" t="n">
-        <v>0.1185000000000024</v>
+        <v>0.1184000000000024</v>
       </c>
     </row>
     <row r="18">
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.03750000000000005</v>
+        <v>0.03740000000000004</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0.104900000000002</v>
+        <v>0.104800000000002</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>2015</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-0.07050000000000099</v>
+        <v>-0.070800000000001</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.1546999999999993</v>
+        <v>0.1544999999999993</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.1179000000000024</v>
+        <v>0.1178000000000023</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>2016</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.05010000000000041</v>
+        <v>0.0497000000000004</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
